--- a/base.xlsx
+++ b/base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="750">
   <si>
     <t xml:space="preserve"> Деревянистые р.: дер., куст. или кустч.; надземный стб. древеснеющий (по крайней мере в нижней части), одетый коркой, живёт несколько или много лет	</t>
   </si>
@@ -299,12 +299,7 @@
   </si>
   <si>
     <t xml:space="preserve">  Цв. без гипантия. Лп. гораздо крупнее мелких зубцов чшч. Тч. 4, чередуются с лп. Завязь нижняя, стлб. 1, кверху булавовидный с головчатым рлц. Куст. с неколючими ветвями. Л. цельные, цельнокрайные, с дуговидными главными боковыми жилками
-́
 Cornáceae — Кизиловые (с. 275)
-Таблица для определения семейств	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17
 </t>
   </si>
   <si>
@@ -563,13 +558,7 @@
   <si>
     <t xml:space="preserve">  Л. широкие, почти округлые, овальные или обратнояйцевидные. Цв. мелкие. Вн. свободнолепестный,
 лп. мельче чшл. или вдвое длиннее их. Пл. с одним или несколькими семенами. Куст. или небольшие
-дер.; ветви не дуговидные	48
-Таблица для определения семейств</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-19
-</t>
+дер.; ветви не дуговидные	</t>
   </si>
   <si>
     <t xml:space="preserve"> Гипантия нет. Лп. почти вдвое длиннее чшл., зеленоватые. Тч. чередуются с лп. Соцв. — сильно раз-ветвлённая метёлка, в которой цвтн. бесплодных цв. сильно разрастаются и покрываются длинными от-топыренными лиловыми или зеленоватыми волосками. Пл. — костянка с высыхающим перикарпием. Куст. или реже небольшие дер. с простыми, цельными или редко с непарно-перистосложными л. ........
@@ -663,7 +652,7 @@
   </si>
   <si>
     <t xml:space="preserve">  Вайи без обесцвеченных базальных сегментов. Спороносные вайи не отличаются или мало отличают-ся от вегетативных, по крайне мере не бурые. Корневища однотипные, укороченные или удлинённые
-.........................................................................................................................................................................</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve"> 57
@@ -674,7 +663,7 @@
 шие, обычно скальные р. Вайи редко превышает 10(15) см дл. .... Aspleniáceae — Костенцóвые (с. 44)</t>
   </si>
   <si>
-    <t xml:space="preserve">  Покрывальце отсутствует или иной формы, не похожее на кармашек, обычно недолговечное, плёнча-тое. Б.ч. более крупные р. ............................................................................................................................</t>
+    <t xml:space="preserve">  Покрывальце отсутствует или иной формы, не похожее на кармашек, обычно недолговечное, плёнча-тое. Б.ч. более крупные р. </t>
   </si>
   <si>
     <t xml:space="preserve"> 58
@@ -698,9 +687,7 @@
     <t xml:space="preserve">60</t>
   </si>
   <si>
-    <t xml:space="preserve">	Вайи не образуют б.м. плотной воронковидной розетки	61
-20	Таблица для определения семейств
-</t>
+    <t xml:space="preserve"> Вайи не образуют б.м. плотной воронковидной розетки</t>
   </si>
   <si>
     <t xml:space="preserve"> Основание вайи уплощено, чёрного цвета, сначала расширенное, а затем к корневищу постепенно клиновидно сужено. Сорусы линейные, часто изогнутые, с линейным же покрывальцем .......................
@@ -1653,8 +1640,7 @@
     <t xml:space="preserve">143</t>
   </si>
   <si>
-    <t xml:space="preserve">  Цв. одиночные или в разнообразно устроенных менее компактных соцв. без общей обёртки, не имитирующих цв.	150
-Таблица для определения семейств	</t>
+    <t xml:space="preserve">  Цв. одиночные или в разнообразно устроенных менее компактных соцв. без общей обёртки, не имитирующих цв. </t>
   </si>
   <si>
     <t xml:space="preserve"> Завязь верхняя, совершенно свободная	</t>
@@ -1793,9 +1779,7 @@
 Rosáceae — Розоцвéтные (см. также ст. 160, 161; с. 160)</t>
   </si>
   <si>
-    <t xml:space="preserve">	Л. без прлстн. Подчашия нет	155
-28	Таблица для определения семейств
-</t>
+    <t xml:space="preserve"> Л. без прлстн. Подчашия нет </t>
   </si>
   <si>
     <t xml:space="preserve"> Л. толстые, мясистые, очередные или супротивные; вегетативные побеги удлинённые или же в виде плотных почти шаровидных розеток. Лп. 5–20. Тч. вдвое больше, чем лп. ................................................
@@ -1989,7 +1973,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Высокие р. с крупными широкояйцевидными л. без точечных ямочек. Цв. б.м. крупные, ярко окра-шенные (но иногда только клейстогамные!). Оклцв. трубчато-воронковидный или колокольчатый; при основании цв. развита обёртка из прцв., напоминающая чшч. Стлб. нитевидный. Пл. — орешек, односеменной ..................................................................................... Nyctagináceae — Никтагиновые (с. 120)
-́
 </t>
   </si>
   <si>
@@ -2487,12 +2470,6 @@
   </si>
   <si>
     <t xml:space="preserve">	Тч. более 2; завязь с 2 или несколькими гнёздами, а если одногнёздная, то плацентация постенная	......
-218
-Таблица для определения семейств</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-33
 </t>
   </si>
   <si>
@@ -2775,7 +2752,6 @@
   <si>
     <t xml:space="preserve"> Р. двудомные. Л. редуцированные, чешуевидные, с коническим шпорцем при основании, несущие в пазухах пучки укороченных или игловидных веточек (кладодий). Cтб. ветвистый. Цв. у наших видов
 белые или зеленовато-белые, по 1–2(3) в пазухах л. Оклцв. полушаровидный или колокольчатый, глу-боко шестираздельный. Пл. — шаровидная красная ягода .......... Asparagáceae — Спáржевые (с. 463)
-Таблица для определения семейств	35
 </t>
   </si>
   <si>
@@ -2907,7 +2883,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2929,6 +2905,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2973,7 +2955,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2984,6 +2966,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3005,7 +2991,7 @@
   </sheetPr>
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D255" activeCellId="0" sqref="D255"/>
     </sheetView>
   </sheetViews>
@@ -3013,7 +2999,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="73.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="39.25"/>
@@ -3377,20 +3363,17 @@
       <c r="D24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3398,14 +3381,14 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3413,11 +3396,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3425,14 +3408,14 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3440,16 +3423,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3457,14 +3440,14 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3472,14 +3455,14 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3487,14 +3470,14 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3502,14 +3485,14 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3517,11 +3500,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3529,14 +3512,14 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3544,14 +3527,14 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3559,14 +3542,14 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3574,14 +3557,14 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3589,11 +3572,11 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3601,14 +3584,14 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3616,16 +3599,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3633,11 +3616,11 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3645,14 +3628,14 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3660,14 +3643,14 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3675,14 +3658,14 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3690,14 +3673,14 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3705,14 +3688,14 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3720,11 +3703,11 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3732,16 +3715,16 @@
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3749,16 +3732,16 @@
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3766,11 +3749,11 @@
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3778,14 +3761,14 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3793,14 +3776,14 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3808,14 +3791,14 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3823,14 +3806,14 @@
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3838,14 +3821,14 @@
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3853,14 +3836,14 @@
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3868,14 +3851,14 @@
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3883,13 +3866,16 @@
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>177</v>
+      <c r="E59" s="1" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3897,11 +3883,11 @@
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3909,14 +3895,14 @@
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3924,11 +3910,11 @@
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3936,16 +3922,16 @@
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3953,14 +3939,14 @@
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3968,14 +3954,14 @@
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3983,11 +3969,11 @@
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3995,16 +3981,16 @@
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4012,16 +3998,16 @@
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4029,11 +4015,11 @@
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4041,14 +4027,14 @@
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4056,16 +4042,16 @@
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4073,16 +4059,16 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4090,16 +4076,16 @@
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4107,11 +4093,11 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4119,14 +4105,14 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4134,14 +4120,14 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4149,11 +4135,11 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4161,16 +4147,16 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4178,14 +4164,14 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4193,14 +4179,14 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4208,11 +4194,11 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4220,11 +4206,11 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4232,16 +4218,16 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4249,11 +4235,11 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4261,11 +4247,11 @@
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4273,16 +4259,16 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="E86" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4290,14 +4276,14 @@
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4305,14 +4291,14 @@
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4320,11 +4306,11 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4332,16 +4318,16 @@
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="E90" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4349,16 +4335,16 @@
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4366,11 +4352,11 @@
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4378,16 +4364,16 @@
         <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4395,14 +4381,14 @@
         <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4410,11 +4396,11 @@
         <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4422,14 +4408,14 @@
         <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4437,14 +4423,14 @@
         <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4452,11 +4438,11 @@
         <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4464,16 +4450,16 @@
         <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4481,16 +4467,16 @@
         <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="E100" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4498,14 +4484,14 @@
         <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4513,11 +4499,11 @@
         <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4525,14 +4511,14 @@
         <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4540,11 +4526,11 @@
         <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4552,14 +4538,14 @@
         <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4567,14 +4553,14 @@
         <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4582,14 +4568,14 @@
         <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4597,14 +4583,14 @@
         <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4612,14 +4598,14 @@
         <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4627,11 +4613,11 @@
         <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4639,16 +4625,16 @@
         <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="E111" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4656,11 +4642,11 @@
         <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4668,16 +4654,16 @@
         <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="E113" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4685,14 +4671,14 @@
         <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4700,16 +4686,16 @@
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="E115" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4717,16 +4703,16 @@
         <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="E116" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4734,11 +4720,11 @@
         <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4746,16 +4732,16 @@
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="E118" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4763,11 +4749,11 @@
         <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4775,11 +4761,11 @@
         <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4787,14 +4773,14 @@
         <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4802,14 +4788,14 @@
         <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4817,11 +4803,11 @@
         <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4829,16 +4815,16 @@
         <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="E124" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4846,16 +4832,16 @@
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="E125" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4863,14 +4849,14 @@
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4878,14 +4864,14 @@
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4893,14 +4879,14 @@
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4908,14 +4894,14 @@
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4923,11 +4909,11 @@
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4935,16 +4921,16 @@
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="E131" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4952,14 +4938,14 @@
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4967,14 +4953,14 @@
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4982,11 +4968,11 @@
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4994,14 +4980,14 @@
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5009,14 +4995,14 @@
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5024,14 +5010,14 @@
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5039,14 +5025,14 @@
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5054,14 +5040,14 @@
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5069,11 +5055,11 @@
         <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5081,14 +5067,14 @@
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5096,16 +5082,16 @@
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>80</v>
+      <c r="E142" s="1" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5113,16 +5099,16 @@
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="E143" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5130,11 +5116,11 @@
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5142,14 +5128,14 @@
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5157,14 +5143,14 @@
         <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5172,14 +5158,14 @@
         <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5187,14 +5173,14 @@
         <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5202,11 +5188,11 @@
         <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5214,16 +5200,16 @@
         <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="E150" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5231,16 +5217,16 @@
         <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5248,16 +5234,16 @@
         <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="E152" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5265,16 +5251,16 @@
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="E153" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5282,11 +5268,14 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5294,14 +5283,14 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5309,11 +5298,11 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5321,14 +5310,14 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5336,16 +5325,16 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="E158" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5353,16 +5342,16 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="E159" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5370,11 +5359,11 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5382,14 +5371,14 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5397,14 +5386,14 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5412,11 +5401,11 @@
         <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5424,16 +5413,16 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="E164" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5441,16 +5430,16 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="E165" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5458,16 +5447,16 @@
         <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="E166" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5475,14 +5464,14 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5490,11 +5479,11 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5502,16 +5491,16 @@
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="E169" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5519,14 +5508,14 @@
         <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5534,11 +5523,11 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5546,14 +5535,14 @@
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5561,11 +5550,11 @@
         <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5573,14 +5562,14 @@
         <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5588,14 +5577,14 @@
         <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5603,14 +5592,14 @@
         <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5618,11 +5607,11 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5630,14 +5619,14 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5645,14 +5634,14 @@
         <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5660,14 +5649,14 @@
         <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5675,14 +5664,14 @@
         <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5690,11 +5679,11 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5702,16 +5691,16 @@
         <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="E183" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5719,14 +5708,14 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5734,14 +5723,14 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5749,14 +5738,14 @@
         <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5764,11 +5753,11 @@
         <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5776,14 +5765,14 @@
         <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5791,14 +5780,14 @@
         <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5806,11 +5795,11 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5818,14 +5807,14 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5833,16 +5822,16 @@
         <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="E192" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5850,11 +5839,11 @@
         <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5862,16 +5851,16 @@
         <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="E194" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5879,14 +5868,14 @@
         <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5894,11 +5883,11 @@
         <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5906,14 +5895,14 @@
         <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5921,16 +5910,16 @@
         <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="E198" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5938,11 +5927,11 @@
         <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5950,14 +5939,14 @@
         <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5965,14 +5954,14 @@
         <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5980,14 +5969,14 @@
         <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5995,11 +5984,11 @@
         <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6007,14 +5996,14 @@
         <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6022,14 +6011,14 @@
         <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6037,16 +6026,16 @@
         <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="E206" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6054,11 +6043,11 @@
         <v>207</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6066,14 +6055,14 @@
         <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6081,14 +6070,14 @@
         <v>209</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6096,16 +6085,16 @@
         <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6113,11 +6102,11 @@
         <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6125,14 +6114,14 @@
         <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6140,11 +6129,11 @@
         <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6152,16 +6141,16 @@
         <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="E214" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6169,16 +6158,16 @@
         <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="E215" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6186,14 +6175,14 @@
         <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6201,14 +6190,14 @@
         <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
+      </c>
+      <c r="E217" s="3" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6216,14 +6205,14 @@
         <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6231,11 +6220,11 @@
         <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6243,14 +6232,14 @@
         <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6258,14 +6247,14 @@
         <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6273,14 +6262,14 @@
         <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6288,16 +6277,16 @@
         <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6305,14 +6294,14 @@
         <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6320,11 +6309,11 @@
         <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6332,14 +6321,14 @@
         <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6347,16 +6336,16 @@
         <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6364,14 +6353,14 @@
         <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6379,11 +6368,11 @@
         <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6391,11 +6380,11 @@
         <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6403,14 +6392,14 @@
         <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6418,14 +6407,14 @@
         <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6433,14 +6422,14 @@
         <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6448,11 +6437,11 @@
         <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6460,16 +6449,16 @@
         <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6477,14 +6466,14 @@
         <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6492,16 +6481,16 @@
         <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6509,14 +6498,14 @@
         <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6524,11 +6513,11 @@
         <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6536,16 +6525,16 @@
         <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6553,16 +6542,16 @@
         <v>241</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6570,14 +6559,14 @@
         <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6585,11 +6574,11 @@
         <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6597,14 +6586,14 @@
         <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6612,14 +6601,14 @@
         <v>245</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6627,14 +6616,14 @@
         <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6642,16 +6631,16 @@
         <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6659,14 +6648,14 @@
         <v>248</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6674,14 +6663,14 @@
         <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6689,14 +6678,14 @@
         <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6704,11 +6693,11 @@
         <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6716,14 +6705,14 @@
         <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6731,11 +6720,11 @@
         <v>253</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6743,14 +6732,14 @@
         <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6758,11 +6747,11 @@
         <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
